--- a/MiniArcade_Documentation/Excel/BOM.xlsx
+++ b/MiniArcade_Documentation/Excel/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MiniArcade\MiniArcadePCB\MiniArcade_Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MiniArcade\MiniArcadePCB\MiniArcade_Documentation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A736C9D-E340-4BD6-BD68-C93CA53200B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92329FE1-7B61-4F1E-8585-8449312326D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Hersteller Bez.</t>
   </si>
@@ -246,12 +246,15 @@
   <si>
     <t>https://www.buydisplay.com/1-44-inch-tft-touch-screen-serial-spi-128x128-lcd-display-module-st7735</t>
   </si>
+  <si>
+    <t>???</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +276,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +294,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,13 +323,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,21 +676,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FCC82-DA3E-4A84-9BF9-9AEB3930B682}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.7265625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.90625" style="1"/>
-    <col min="5" max="5" width="119.81640625" customWidth="1"/>
+    <col min="3" max="5" width="10.90625" style="1"/>
+    <col min="6" max="6" width="119.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -672,16 +703,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -694,19 +725,21 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -719,11 +752,12 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -736,11 +770,12 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -753,11 +788,12 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -770,11 +806,12 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -787,11 +824,14 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -804,16 +844,17 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -826,11 +867,12 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -843,11 +885,12 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -860,11 +903,12 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -877,11 +921,12 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -894,11 +939,12 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -911,11 +957,12 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -928,11 +975,12 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -945,16 +993,17 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -967,16 +1016,16 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -989,11 +1038,12 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1006,11 +1056,12 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1023,16 +1074,17 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -1045,11 +1097,12 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1062,11 +1115,12 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1079,30 +1133,31 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{4ECD89C7-E239-4D37-B63C-1A17B8079D9C}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{6E6F62B1-DACD-4C81-B93F-8203DAB807DF}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{65DE6944-C4F4-41B0-B787-126C76A33186}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{FF4F4812-C631-4015-97FB-DEEB74A6A2D9}"/>
-    <hyperlink ref="E15" r:id="rId5" xr:uid="{7ACD9203-B3BD-42B9-B64A-588D4D53BB8D}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{8507224C-5D58-4B00-8C9A-0386056CC9AA}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{4ECD89C7-E239-4D37-B63C-1A17B8079D9C}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{6E6F62B1-DACD-4C81-B93F-8203DAB807DF}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{65DE6944-C4F4-41B0-B787-126C76A33186}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{FF4F4812-C631-4015-97FB-DEEB74A6A2D9}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{7ACD9203-B3BD-42B9-B64A-588D4D53BB8D}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{8507224C-5D58-4B00-8C9A-0386056CC9AA}"/>
     <hyperlink ref="B16" r:id="rId7" location="7447462022" display="https://www.we-online.com/de/components/products/WE-TI - 7447462022" xr:uid="{8B1BD0D3-F64F-4D25-942F-32A7FA99655E}"/>
     <hyperlink ref="B18" r:id="rId8" location="7447462047" display="https://www.we-online.com/de/components/products/WE-TI - 7447462047" xr:uid="{45A392CF-89C5-49FF-A22D-60CAAB5A3150}"/>
-    <hyperlink ref="E8" r:id="rId9" xr:uid="{F12F4F28-FC8C-42B1-B1A1-65A403BE0CA4}"/>
-    <hyperlink ref="E19" r:id="rId10" xr:uid="{58D4E4B6-5AAB-42BF-818E-900508DF62D6}"/>
-    <hyperlink ref="E17" r:id="rId11" xr:uid="{F601C01F-8F68-490A-B433-CFEA6E55E6E8}"/>
-    <hyperlink ref="E21" r:id="rId12" xr:uid="{BD6C3CDF-7729-457F-BC56-CBF73139BAF9}"/>
-    <hyperlink ref="E24" r:id="rId13" xr:uid="{FE48265F-1D29-4115-895D-BCFC9236FFE5}"/>
-    <hyperlink ref="E25" r:id="rId14" xr:uid="{80850FB4-3178-4F39-A983-7966A13D37BA}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{7D66C85A-1247-4A85-8BFB-47C65B656CC1}"/>
-    <hyperlink ref="E14" r:id="rId16" xr:uid="{A86C964D-302B-49DE-86E8-8B7DF73B19BC}"/>
-    <hyperlink ref="E13" r:id="rId17" xr:uid="{3C410E5A-22C5-47F1-BA68-10157A003FE5}"/>
-    <hyperlink ref="E9" r:id="rId18" xr:uid="{8B90EBA0-3289-4E07-B2D7-9D0B60EA29B4}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{F12F4F28-FC8C-42B1-B1A1-65A403BE0CA4}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{58D4E4B6-5AAB-42BF-818E-900508DF62D6}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{F601C01F-8F68-490A-B433-CFEA6E55E6E8}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{BD6C3CDF-7729-457F-BC56-CBF73139BAF9}"/>
+    <hyperlink ref="F24" r:id="rId13" xr:uid="{FE48265F-1D29-4115-895D-BCFC9236FFE5}"/>
+    <hyperlink ref="F25" r:id="rId14" xr:uid="{80850FB4-3178-4F39-A983-7966A13D37BA}"/>
+    <hyperlink ref="F23" r:id="rId15" xr:uid="{7D66C85A-1247-4A85-8BFB-47C65B656CC1}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{A86C964D-302B-49DE-86E8-8B7DF73B19BC}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{3C410E5A-22C5-47F1-BA68-10157A003FE5}"/>
+    <hyperlink ref="F9" r:id="rId18" xr:uid="{8B90EBA0-3289-4E07-B2D7-9D0B60EA29B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/MiniArcade_Documentation/Excel/BOM.xlsx
+++ b/MiniArcade_Documentation/Excel/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MiniArcade\MiniArcadePCB\MiniArcade_Documentation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92329FE1-7B61-4F1E-8585-8449312326D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D821B252-E9EE-4FD5-929D-336C48D6FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B3966804-7C51-4FAC-871E-D668C88E184C}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +283,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,12 +307,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,10 +336,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FCC82-DA3E-4A84-9BF9-9AEB3930B682}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,7 +726,7 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -752,7 +753,7 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
@@ -770,7 +771,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="F6" t="s">
         <v>30</v>
       </c>
@@ -788,7 +789,7 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
@@ -806,7 +807,7 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
@@ -844,7 +845,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
@@ -867,7 +868,7 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
@@ -885,7 +886,7 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
@@ -921,7 +922,7 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
